--- a/others/Experiment Result Collecting.xlsx
+++ b/others/Experiment Result Collecting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zjtbsteduau-my.sharepoint.com/personal/bert_office2016_cc/Documents/语义分割/segmentation-paper-reading-notes/Other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhixuan/Documents/OneDrive - www.office2016.cc/语义分割/segmentation-paper-reading-notes/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{290CA6C8-50CB-A74D-9144-BF3B7CC96E71}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D8714F8A-72FA-D040-B0A1-7543CBB04503}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD25FF6-F25D-4A4B-89AA-E37CC0CDF32A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1360" windowWidth="38400" windowHeight="21600" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>mIoU%</t>
   </si>
@@ -144,6 +144,65 @@
   </si>
   <si>
     <t>DeepLabv3+ (Chen et al. 2018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> Method</t>
+  </si>
+  <si>
+    <t>PASCAL VOC 2012 test set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> mIOU%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Layer Cascade (LC) (Li et al. 2017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCN-8s (Long et al. 2015)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TuSimple (Wang et al. 2017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large Kernel Matters (Peng et al. 2017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multipath-ReneNet (Lin et al. 2017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDW-CNN (Wang et al. 2017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASIA IVA SDN (Fu et al. 2017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIS (Luo et al. 2017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepLabv3-JFT (Chen et al. 2017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet-38 MS COCO (Wu et al. 2016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepLabv3+ (Xception) (Chen et al. 2018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepLabv3+ (Xception-JFT) (Chen et al. 2018)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,6 +232,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -208,13 +273,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,10 +306,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A11F8-E99A-4346-8F43-B4230CF89546}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="183" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="274" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -565,10 +647,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
@@ -673,10 +755,10 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="16" thickBot="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>52.6</v>
       </c>
       <c r="C11" s="1"/>
@@ -713,10 +795,10 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="16" thickBot="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -777,58 +859,58 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>78.400000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>78.900000000000006</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>80.099999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>80.599999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>81.3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>81.5</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" thickBot="1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>82.1</v>
       </c>
     </row>
@@ -843,13 +925,13 @@
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" ht="16" thickBot="1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" ht="16" thickBot="1">
+    <row r="33" spans="1:5" ht="16" thickBot="1">
       <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,16 +940,16 @@
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" ht="16" thickTop="1">
+    <row r="34" spans="1:5" ht="16" thickTop="1">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>22.7</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
@@ -876,7 +958,7 @@
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -885,7 +967,7 @@
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -894,7 +976,7 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -903,25 +985,147 @@
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" ht="16" thickBot="1">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:5" ht="16" thickBot="1">
+      <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>39.700000000000003</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
+    <row r="41" spans="1:5">
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" ht="16" thickBot="1">
+      <c r="A42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" ht="16" thickBot="1">
+      <c r="A43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" thickTop="1">
+      <c r="A44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="1">
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="1">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="1">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="1">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="1">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="1">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="1">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="1">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="1">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="1">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="1">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="1">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16" thickBot="1">
+      <c r="A56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="4">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/others/Experiment Result Collecting.xlsx
+++ b/others/Experiment Result Collecting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhixuan/Documents/OneDrive - www.office2016.cc/语义分割/segmentation-paper-reading-notes/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD25FF6-F25D-4A4B-89AA-E37CC0CDF32A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDE1F78-08AA-AD49-A8F6-882BFEA7C069}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>mIoU%</t>
   </si>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RefineNet (Res152) (Lin et al. 2017a)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PSPNet (Res101) (Zhao et al. 2017)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,18 +83,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EncNet (Res101) (Zhang et al. 2018b)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DeepLab-v2(Chen et al. 2018)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RefineNet (Lin et al. 2017a)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GCN (Peng et al. 2017)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ResNet-38 (Wu, Shen, and Hengel 2016)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PSPNet (Zhao et al. 2017)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RefineNet (Res101) (Lin et al. 2017a)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DeepLabv3 (Chen et al. 2017)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +183,39 @@
   </si>
   <si>
     <t>DeepLabv3+ (Xception-JFT) (Chen et al. 2018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefineNet (Res152) (Lin et al. 2017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncNet (Res101) (Zhang et al. 2018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefineNet (Lin et al. 2017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet-38 (Wu et al. 2016)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefineNet (Res101) (Lin et al. 2017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coarse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coarse: Use train extra set (coarse annotations)
+as well.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCN + 1 GloRe unit (Res101) (Chen et al. 2018)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,6 +329,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A11F8-E99A-4346-8F43-B4230CF89546}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="274" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="274" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -647,10 +669,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
@@ -712,7 +734,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>47.3</v>
@@ -723,7 +745,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>47.8</v>
@@ -734,7 +756,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>51.6</v>
@@ -745,7 +767,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1">
         <v>51.7</v>
@@ -794,13 +816,13 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="16" thickBot="1">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:7" ht="17" customHeight="1" thickBot="1">
+      <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -812,7 +834,9 @@
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -820,312 +844,350 @@
     </row>
     <row r="17" spans="1:3" ht="16" thickTop="1">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
         <v>70.400000000000006</v>
       </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1">
         <v>73.599999999999994</v>
       </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1">
         <v>76.900000000000006</v>
       </c>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1">
         <v>77.599999999999994</v>
       </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <v>78.400000000000006</v>
       </c>
+      <c r="C21" s="1">
+        <v>80.599999999999994</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22" s="5">
         <v>78.400000000000006</v>
       </c>
+      <c r="C22" s="1">
+        <v>81.2</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5">
         <v>78.900000000000006</v>
       </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" s="5">
         <v>80.099999999999994</v>
       </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B25" s="5">
         <v>80.599999999999994</v>
       </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1">
         <v>81.3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B28" s="5">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" thickBot="1">
-      <c r="A28" s="4" t="s">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" ht="16" thickBot="1">
+      <c r="A29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="6">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="32" customHeight="1">
+      <c r="A31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="16" thickBot="1">
+      <c r="A35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="16" thickBot="1">
+      <c r="A36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="16" thickTop="1">
+      <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="4">
-        <v>82.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" ht="16" thickBot="1">
-      <c r="A32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" ht="16" thickBot="1">
-      <c r="A33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="16" thickTop="1">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="B37" s="1">
         <v>22.7</v>
-      </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="1">
-        <v>26.9</v>
-      </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="1">
-        <v>31.2</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="1">
-        <v>33.6</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B38" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1">
         <v>35.700000000000003</v>
       </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" ht="16" thickBot="1">
-      <c r="A39" s="4" t="s">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="16" thickBot="1">
+      <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B42" s="4">
         <v>39.700000000000003</v>
       </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" ht="16" thickBot="1">
-      <c r="A42" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" ht="16" thickBot="1">
-      <c r="A43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16" thickTop="1">
-      <c r="A44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="1">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" ht="16" thickBot="1">
+      <c r="A45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" ht="16" thickBot="1">
+      <c r="A46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" thickTop="1">
+      <c r="A47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="1">
         <v>82.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="1">
-        <v>83.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="1">
-        <v>83.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="1">
-        <v>84.2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B48" s="1">
-        <v>84.9</v>
+        <v>83.1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B49" s="1">
-        <v>85.4</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B50" s="1">
-        <v>86.3</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B51" s="1">
-        <v>86.6</v>
+        <v>84.9</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1">
-        <v>86.8</v>
+        <v>85.4</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B53" s="1">
-        <v>85.7</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B54" s="1">
-        <v>86.9</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B55" s="1">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="1">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="1">
         <v>87.8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16" thickBot="1">
-      <c r="A56" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="4">
+    <row r="59" spans="1:2" ht="16" thickBot="1">
+      <c r="A59" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="4">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/others/Experiment Result Collecting.xlsx
+++ b/others/Experiment Result Collecting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhixuan/Documents/OneDrive - www.office2016.cc/语义分割/segmentation-paper-reading-notes/others/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zjtbsteduau-my.sharepoint.com/personal/bert_office2016_cc/Documents/语义分割/segmentation-paper-reading-notes/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDE1F78-08AA-AD49-A8F6-882BFEA7C069}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3F16B487-42E6-954C-9374-0D45E5791E57}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
+    <workbookView xWindow="33020" yWindow="80" windowWidth="28800" windowHeight="17540" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>mIoU%</t>
   </si>
@@ -216,6 +216,10 @@
   </si>
   <si>
     <t>FCN + 1 GloRe unit (Res101) (Chen et al. 2018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASCAL VOC 2012 val set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +340,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -654,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A11F8-E99A-4346-8F43-B4230CF89546}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="274" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="274" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -669,10 +679,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
@@ -817,11 +827,11 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="10"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -964,11 +974,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="32" customHeight="1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
@@ -986,10 +996,10 @@
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="16" thickBot="1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="16" thickBot="1">
@@ -1064,10 +1074,10 @@
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" ht="16" thickBot="1">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="12"/>
     </row>
     <row r="46" spans="1:5" ht="16" thickBot="1">
       <c r="A46" s="8" t="s">
@@ -1181,8 +1191,75 @@
         <v>89</v>
       </c>
     </row>
+    <row r="62" spans="1:2" ht="16" thickBot="1">
+      <c r="A62" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="1:2" ht="16" thickBot="1">
+      <c r="A63" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16" thickTop="1">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="1:2" ht="16" thickBot="1">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A45:B45"/>

--- a/others/Experiment Result Collecting.xlsx
+++ b/others/Experiment Result Collecting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zjtbsteduau-my.sharepoint.com/personal/bert_office2016_cc/Documents/语义分割/segmentation-paper-reading-notes/others/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhixuan/Documents/OneDrive - www.office2016.cc/语义分割/segmentation-paper-reading-notes/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3F16B487-42E6-954C-9374-0D45E5791E57}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4958D13D-78F7-0541-8F9C-A72B39FC24C0}"/>
   <bookViews>
     <workbookView xWindow="33020" yWindow="80" windowWidth="28800" windowHeight="17540" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>mIoU%</t>
   </si>
@@ -220,6 +220,14 @@
   </si>
   <si>
     <t>PASCAL VOC 2012 val set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExFuse ResNet101 (Zhang et al. 2018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExFuse ResNeXt131 (Zhang et al. 2018)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,6 +348,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -664,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A11F8-E99A-4346-8F43-B4230CF89546}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="274" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="168" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -679,10 +690,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
@@ -827,11 +838,11 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="10"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -974,11 +985,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="32" customHeight="1">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
@@ -996,10 +1007,10 @@
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="16" thickBot="1">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="16" thickBot="1">
@@ -1074,10 +1085,10 @@
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" ht="16" thickBot="1">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="13"/>
     </row>
     <row r="46" spans="1:5" ht="16" thickBot="1">
       <c r="A46" s="8" t="s">
@@ -1136,84 +1147,92 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" s="1">
-        <v>86.3</v>
+      <c r="A53" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="12">
+        <v>86.2</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="1">
-        <v>86.6</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55" s="1">
-        <v>86.8</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B56" s="1">
-        <v>85.7</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B57" s="1">
-        <v>86.9</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="1">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B59" s="1">
         <v>87.8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16" thickBot="1">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="12">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16" thickBot="1">
+      <c r="A61" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B61" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16" thickBot="1">
-      <c r="A62" s="12" t="s">
+    <row r="64" spans="1:2" ht="16" thickBot="1">
+      <c r="A64" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="12"/>
-    </row>
-    <row r="63" spans="1:2" ht="16" thickBot="1">
-      <c r="A63" s="8" t="s">
+      <c r="B64" s="13"/>
+    </row>
+    <row r="65" spans="1:2" ht="16" thickBot="1">
+      <c r="A65" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B65" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16" thickTop="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-    </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" ht="16" thickTop="1">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
     </row>
@@ -1253,13 +1272,21 @@
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
     </row>
-    <row r="76" spans="1:2" ht="16" thickBot="1">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
+    <row r="76" spans="1:2">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="1:2" ht="16" thickBot="1">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A45:B45"/>

--- a/others/Experiment Result Collecting.xlsx
+++ b/others/Experiment Result Collecting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhixuan/Documents/OneDrive - www.office2016.cc/语义分割/segmentation-paper-reading-notes/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4958D13D-78F7-0541-8F9C-A72B39FC24C0}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CFDA7C5C-212B-6E47-AC6C-977984B11543}"/>
   <bookViews>
-    <workbookView xWindow="33020" yWindow="80" windowWidth="28800" windowHeight="17540" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
+    <workbookView xWindow="38180" yWindow="400" windowWidth="28800" windowHeight="17540" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>mIoU%</t>
   </si>
@@ -203,10 +203,6 @@
   </si>
   <si>
     <t>RefineNet (Res101) (Lin et al. 2017)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coarse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,6 +224,22 @@
   </si>
   <si>
     <t>ExFuse ResNeXt131 (Zhang et al. 2018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fine mIoU%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coarse mIoU%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCNet(Res101) (Yuan et al. 2018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后得分别验证一下这些方法是只用了fine或coarse还是都用了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +360,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,25 +690,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A11F8-E99A-4346-8F43-B4230CF89546}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="168" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="168" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.5" style="2" customWidth="1"/>
-    <col min="2" max="4" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="14.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="29" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
@@ -838,11 +855,11 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="10"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -853,17 +870,17 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="16" thickTop="1">
+    <row r="17" spans="1:5" ht="16" thickTop="1">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -872,7 +889,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -880,8 +897,11 @@
         <v>73.599999999999994</v>
       </c>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -890,7 +910,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -899,7 +919,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -910,7 +930,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -921,7 +941,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -930,7 +950,7 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -939,7 +959,7 @@
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -948,7 +968,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
@@ -957,16 +977,16 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5">
         <v>80.900000000000006</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>6</v>
       </c>
@@ -975,26 +995,30 @@
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="16" thickBot="1">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="5">
+        <v>81.7</v>
+      </c>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" ht="16" thickBot="1">
+      <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="6">
+      <c r="B30" s="4"/>
+      <c r="C30" s="6">
         <v>82.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="32" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+    <row r="32" spans="1:5" ht="32" customHeight="1">
+      <c r="A32" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
@@ -1006,237 +1030,238 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:5" ht="16" thickBot="1">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="16" thickBot="1">
+      <c r="A36" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="16" thickBot="1">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="16" thickBot="1">
+      <c r="A37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="16" thickTop="1">
-      <c r="A37" s="1" t="s">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="16" thickTop="1">
+      <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B38" s="1">
         <v>22.7</v>
-      </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1">
-        <v>26.9</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39" s="1">
-        <v>31.2</v>
+        <v>26.9</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B40" s="1">
-        <v>33.6</v>
+        <v>31.2</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="1">
         <v>35.700000000000003</v>
       </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="16" thickBot="1">
-      <c r="A42" s="4" t="s">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="16" thickBot="1">
+      <c r="A43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B43" s="4">
         <v>39.700000000000003</v>
       </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" ht="16" thickBot="1">
-      <c r="A45" s="13" t="s">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="16" thickBot="1">
+      <c r="A46" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" ht="16" thickBot="1">
-      <c r="A46" s="8" t="s">
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" ht="16" thickBot="1">
+      <c r="A47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" thickTop="1">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:5" ht="16" thickTop="1">
+      <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B48" s="1">
         <v>82.7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="1">
-        <v>83.1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="1">
-        <v>83.6</v>
+        <v>83.1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" s="1">
-        <v>84.2</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B51" s="1">
-        <v>84.9</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="1">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B53" s="1">
         <v>85.4</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="12">
+    <row r="54" spans="1:2">
+      <c r="A54" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="12">
         <v>86.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="1">
-        <v>86.3</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="1">
-        <v>86.6</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B56" s="1">
-        <v>86.8</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B57" s="1">
-        <v>85.7</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B58" s="1">
-        <v>86.9</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="1">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B60" s="1">
         <v>87.8</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="12">
+    <row r="61" spans="1:2">
+      <c r="A61" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="12">
         <v>87.9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16" thickBot="1">
-      <c r="A61" s="4" t="s">
+    <row r="62" spans="1:2" ht="16" thickBot="1">
+      <c r="A62" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B62" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16" thickBot="1">
-      <c r="A64" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="13"/>
-    </row>
     <row r="65" spans="1:2" ht="16" thickBot="1">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="14"/>
+    </row>
+    <row r="66" spans="1:2" ht="16" thickBot="1">
+      <c r="A66" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B66" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16" thickTop="1">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-    </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" ht="16" thickTop="1">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
     </row>
@@ -1280,17 +1305,21 @@
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="1:2" ht="16" thickBot="1">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
+    <row r="78" spans="1:2">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="1:2" ht="16" thickBot="1">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A15:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/others/Experiment Result Collecting.xlsx
+++ b/others/Experiment Result Collecting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhixuan/Documents/OneDrive - www.office2016.cc/语义分割/segmentation-paper-reading-notes/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CFDA7C5C-212B-6E47-AC6C-977984B11543}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B74EDD8B-20CF-614F-AE3E-AEF4AABB3BB3}"/>
   <bookViews>
-    <workbookView xWindow="38180" yWindow="400" windowWidth="28800" windowHeight="17540" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
+    <workbookView xWindow="34680" yWindow="1140" windowWidth="28800" windowHeight="17540" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>mIoU%</t>
   </si>
@@ -211,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FCN + 1 GloRe unit (Res101) (Chen et al. 2018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PASCAL VOC 2012 val set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,11 +231,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OCNet(Res101) (Yuan et al. 2018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以后得分别验证一下这些方法是只用了fine或coarse还是都用了</t>
+    <t>Backbone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet-101</t>
+  </si>
+  <si>
+    <t>ResNet-101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCN + 1 GloRe unit (Chen et al. 2018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANet (Jun et al. 2018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCNet (Yuan et al. 2018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WiderResnet-38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DenseNet-161</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,6 +292,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -327,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -358,22 +383,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,25 +726,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A11F8-E99A-4346-8F43-B4230CF89546}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="168" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="168" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="14.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="37.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="29" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
@@ -854,13 +888,13 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:7" ht="17" customHeight="1">
+      <c r="A15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -870,155 +904,193 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="16" thickTop="1">
+    <row r="17" spans="1:4" ht="16" thickTop="1">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1">
         <v>70.400000000000006</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1">
         <v>73.599999999999994</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="E18" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1">
         <v>76.900000000000006</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1">
         <v>77.599999999999994</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1">
         <v>78.400000000000006</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="5">
         <v>78.400000000000006</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>81.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="5">
         <v>78.900000000000006</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="5">
         <v>80.099999999999994</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="5">
         <v>80.599999999999994</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="1">
+      <c r="B26" s="14"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="1">
         <v>81.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="5">
+        <v>53</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="5">
         <v>80.900000000000006</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="5">
+        <v>54</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="5">
         <v>81.5</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="5">
+        <v>55</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5">
         <v>81.7</v>
       </c>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" ht="16" thickBot="1">
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" thickBot="1">
       <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="6">
+      <c r="B30" s="13"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6">
         <v>82.1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="32" customHeight="1">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:4" ht="32" customHeight="1">
+      <c r="A32" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
@@ -1036,10 +1108,10 @@
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="16" thickBot="1">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="14"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="16" thickBot="1">
@@ -1114,10 +1186,10 @@
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" ht="16" thickBot="1">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="14"/>
+      <c r="B46" s="15"/>
     </row>
     <row r="47" spans="1:5" ht="16" thickBot="1">
       <c r="A47" s="8" t="s">
@@ -1176,10 +1248,10 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="12">
+      <c r="A54" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="11">
         <v>86.2</v>
       </c>
     </row>
@@ -1232,10 +1304,10 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="12">
+      <c r="A61" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="11">
         <v>87.9</v>
       </c>
     </row>
@@ -1248,10 +1320,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="16" thickBot="1">
-      <c r="A65" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="14"/>
+      <c r="A65" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="15"/>
     </row>
     <row r="66" spans="1:2" ht="16" thickBot="1">
       <c r="A66" s="8" t="s">
@@ -1262,52 +1334,52 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" thickTop="1">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
     </row>
     <row r="79" spans="1:2" ht="16" thickBot="1">
       <c r="A79" s="9"/>
@@ -1319,8 +1391,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/others/Experiment Result Collecting.xlsx
+++ b/others/Experiment Result Collecting.xlsx
@@ -398,16 +398,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -727,7 +727,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="168" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -741,10 +741,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
@@ -932,7 +932,7 @@
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="1">
@@ -944,7 +944,7 @@
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="1">
@@ -956,7 +956,7 @@
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="1">
@@ -982,7 +982,7 @@
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="5">
@@ -996,7 +996,7 @@
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="5">
@@ -1008,7 +1008,7 @@
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="5">
@@ -1085,12 +1085,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="32" customHeight="1">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
@@ -1108,10 +1108,10 @@
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="16" thickBot="1">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="16" thickBot="1">
@@ -1186,10 +1186,10 @@
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" ht="16" thickBot="1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="16"/>
     </row>
     <row r="47" spans="1:5" ht="16" thickBot="1">
       <c r="A47" s="8" t="s">
@@ -1320,10 +1320,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="16" thickBot="1">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="15"/>
+      <c r="B65" s="16"/>
     </row>
     <row r="66" spans="1:2" ht="16" thickBot="1">
       <c r="A66" s="8" t="s">

--- a/others/Experiment Result Collecting.xlsx
+++ b/others/Experiment Result Collecting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhixuan/Documents/OneDrive - www.office2016.cc/语义分割/segmentation-paper-reading-notes/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B74EDD8B-20CF-614F-AE3E-AEF4AABB3BB3}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EF5A0EEA-4CCF-AE46-A2CF-FB54B4D29FCF}"/>
   <bookViews>
-    <workbookView xWindow="34680" yWindow="1140" windowWidth="28800" windowHeight="17540" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
+    <workbookView xWindow="33620" yWindow="960" windowWidth="28800" windowHeight="17540" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>mIoU%</t>
   </si>
@@ -87,30 +87,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GCN (Peng et al. 2017)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DUC (Wang et al. 2018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PSPNet (Zhao et al. 2017)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BiSeNet (Yu et al. 2018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSANet (Zhao et al. 2018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DenseASPP (Yang et al. 2018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DeepLab-v2(Res101-COCO) (Chen et al. 2018)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,10 +171,6 @@
   </si>
   <si>
     <t>EncNet (Res101) (Zhang et al. 2018)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefineNet (Lin et al. 2017)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,6 +235,53 @@
   </si>
   <si>
     <t>DenseNet-161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> Xception-65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> multi-scale</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefineNet (Lin et al. 2017) *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCN (Peng et al. 2017) *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUC (Wang et al. 2018) *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiSeNet (Yu et al. 2018) *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSANet (Zhao et al. 2018) *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DenseASPP (Yang et al. 2018) *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCNet (Huang et al. 2018) *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* train with both the train-fine and val-fine datasets. (Gray means I don't know yet)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,12 +324,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -352,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,15 +421,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,6 +440,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A11F8-E99A-4346-8F43-B4230CF89546}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="168" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -741,10 +785,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
@@ -806,7 +850,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1">
         <v>47.3</v>
@@ -839,7 +883,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1">
         <v>51.7</v>
@@ -889,13 +933,13 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
@@ -904,440 +948,478 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="16" thickTop="1">
+    <row r="17" spans="1:5" ht="16" thickTop="1">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="1">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="1">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="1">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E21" s="1">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="5">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E22" s="1">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="5">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="5">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="5">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="1">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="5">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="15">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="5">
+        <v>81.5</v>
+      </c>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="5">
+        <v>81.7</v>
+      </c>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="16" thickBot="1">
+      <c r="A31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="1">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="D21" s="1">
-        <v>80.599999999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="5">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="D22" s="1">
-        <v>81.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="5">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="5">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="5">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="1">
-        <v>81.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="5">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="5">
-        <v>81.5</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5" t="s">
+      <c r="C31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="5">
-        <v>81.7</v>
-      </c>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" ht="16" thickBot="1">
-      <c r="A30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="6">
+      <c r="D31" s="4"/>
+      <c r="E31" s="6">
         <v>82.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="32" customHeight="1">
-      <c r="A32" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+    <row r="33" spans="1:5" ht="32" customHeight="1">
+      <c r="A33" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="16" thickBot="1">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="16" thickBot="1">
+      <c r="A37" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="16" thickBot="1">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="16" thickBot="1">
+      <c r="A38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="16" thickTop="1">
-      <c r="A38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="16" thickTop="1">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="1">
         <v>22.7</v>
-      </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="1">
-        <v>26.9</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1">
-        <v>31.2</v>
+        <v>26.9</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1">
-        <v>33.6</v>
+        <v>31.2</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="1">
         <v>35.700000000000003</v>
       </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" ht="16" thickBot="1">
-      <c r="A43" s="4" t="s">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="16" thickBot="1">
+      <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B44" s="4">
         <v>39.700000000000003</v>
       </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" ht="16" thickBot="1">
-      <c r="A46" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="16"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="16" thickBot="1">
-      <c r="A47" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="16" thickTop="1">
-      <c r="A48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="1">
+      <c r="A47" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" ht="16" thickBot="1">
+      <c r="A48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16" thickTop="1">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1">
         <v>82.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="1">
-        <v>83.1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B50" s="1">
-        <v>83.6</v>
+        <v>83.1</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B51" s="1">
-        <v>84.2</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B52" s="1">
-        <v>84.9</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B53" s="1">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1">
         <v>85.4</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="11">
+    <row r="55" spans="1:2">
+      <c r="A55" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="11">
         <v>86.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="1">
-        <v>86.3</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B56" s="1">
-        <v>86.6</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B57" s="1">
-        <v>86.8</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B58" s="1">
-        <v>85.7</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B59" s="1">
-        <v>86.9</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B60" s="1">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="1">
         <v>87.8</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" s="11">
+    <row r="62" spans="1:2">
+      <c r="A62" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="11">
         <v>87.9</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16" thickBot="1">
-      <c r="A62" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="4">
+    <row r="63" spans="1:2" ht="16" thickBot="1">
+      <c r="A63" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16" thickBot="1">
-      <c r="A65" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="16"/>
-    </row>
     <row r="66" spans="1:2" ht="16" thickBot="1">
-      <c r="A66" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16" thickTop="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="A66" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="17"/>
+    </row>
+    <row r="67" spans="1:2" ht="16" thickBot="1">
+      <c r="A67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16" thickTop="1">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
     </row>
@@ -1381,18 +1463,23 @@
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
     </row>
-    <row r="79" spans="1:2" ht="16" thickBot="1">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
+    <row r="79" spans="1:2">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+    </row>
+    <row r="80" spans="1:2" ht="16" thickBot="1">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A65:B65"/>
+  <mergeCells count="7">
+    <mergeCell ref="A66:B66"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/others/Experiment Result Collecting.xlsx
+++ b/others/Experiment Result Collecting.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhixuan/Documents/OneDrive - www.office2016.cc/语义分割/segmentation-paper-reading-notes/others/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zjtbsteduau-my.sharepoint.com/personal/bert_office2016_cc/Documents/语义分割/segmentation-paper-reading-notes/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EF5A0EEA-4CCF-AE46-A2CF-FB54B4D29FCF}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{62E551EC-10E5-524D-B422-5250019DCCBD}"/>
   <bookViews>
-    <workbookView xWindow="33620" yWindow="960" windowWidth="28800" windowHeight="17540" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>mIoU%</t>
   </si>
@@ -282,6 +283,10 @@
   </si>
   <si>
     <t>* train with both the train-fine and val-fine datasets. (Gray means I don't know yet)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFN (Yu et al. 2018)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,25 +438,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A11F8-E99A-4346-8F43-B4230CF89546}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="168" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -785,10 +793,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
@@ -933,13 +941,13 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
@@ -969,11 +977,11 @@
       <c r="B17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="1">
         <v>70.400000000000006</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
@@ -982,11 +990,11 @@
       <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1">
         <v>73.599999999999994</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
@@ -995,11 +1003,11 @@
       <c r="B19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1">
         <v>76.900000000000006</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
@@ -1008,11 +1016,11 @@
       <c r="B20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1">
         <v>77.599999999999994</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
@@ -1021,7 +1029,7 @@
       <c r="B21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1">
         <v>78.400000000000006</v>
       </c>
@@ -1036,7 +1044,7 @@
       <c r="B22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="5">
         <v>78.400000000000006</v>
       </c>
@@ -1051,379 +1059,392 @@
       <c r="B23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="5">
         <v>78.900000000000006</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>60</v>
+      <c r="A24" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="5">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="E24" s="22"/>
+      <c r="C24" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="17">
+        <v>79.3</v>
+      </c>
+      <c r="E24" s="21">
+        <v>80.3</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="5">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="5">
+      <c r="C26" s="20"/>
+      <c r="D26" s="5">
         <v>80.599999999999994</v>
       </c>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="20" t="s">
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="1">
+      <c r="D27" s="5"/>
+      <c r="E27" s="1">
         <v>81.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="20" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="5">
+      <c r="C28" s="20"/>
+      <c r="D28" s="5">
         <v>80.900000000000006</v>
       </c>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="15" t="s">
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="23" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D29" s="15">
         <v>81.400000000000006</v>
       </c>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="20" t="s">
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="5">
-        <v>81.5</v>
-      </c>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="20" t="s">
-        <v>49</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="5">
+        <v>81.5</v>
+      </c>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="5">
         <v>81.7</v>
       </c>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="1:5" ht="16" thickBot="1">
-      <c r="A31" s="21" t="s">
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" ht="16" thickBot="1">
+      <c r="A32" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B32" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="6">
+      <c r="D32" s="4"/>
+      <c r="E32" s="6">
         <v>82.1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="32" customHeight="1">
-      <c r="A33" s="19" t="s">
+    <row r="34" spans="1:5" ht="32" customHeight="1">
+      <c r="A34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="19" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="16" thickBot="1">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="16" thickBot="1">
+      <c r="A38" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="16" thickBot="1">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="16" thickBot="1">
+      <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" ht="16" thickTop="1">
-      <c r="A39" s="1" t="s">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="16" thickTop="1">
+      <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B40" s="1">
         <v>22.7</v>
-      </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="1">
-        <v>26.9</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1">
-        <v>31.2</v>
+        <v>26.9</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B42" s="1">
-        <v>33.6</v>
+        <v>31.2</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="1">
         <v>35.700000000000003</v>
       </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" ht="16" thickBot="1">
-      <c r="A44" s="4" t="s">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="16" thickBot="1">
+      <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B45" s="4">
         <v>39.700000000000003</v>
       </c>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" ht="16" thickBot="1">
-      <c r="A47" s="17" t="s">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" ht="16" thickBot="1">
+      <c r="A48" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="17"/>
-    </row>
-    <row r="48" spans="1:5" ht="16" thickBot="1">
-      <c r="A48" s="8" t="s">
+      <c r="B48" s="22"/>
+    </row>
+    <row r="49" spans="1:2" ht="16" thickBot="1">
+      <c r="A49" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B49" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16" thickTop="1">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:2" ht="16" thickTop="1">
+      <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B50" s="1">
         <v>82.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="1">
-        <v>83.1</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" s="1">
-        <v>83.6</v>
+        <v>83.1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" s="1">
-        <v>84.2</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B53" s="1">
-        <v>84.9</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="1">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B55" s="1">
         <v>85.4</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="11" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B56" s="11">
         <v>86.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="1">
-        <v>86.3</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" s="1">
-        <v>86.6</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" s="1">
-        <v>86.8</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B59" s="1">
-        <v>85.7</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B60" s="1">
-        <v>86.9</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="1">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B62" s="1">
         <v>87.8</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="11" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B63" s="11">
         <v>87.9</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16" thickBot="1">
-      <c r="A63" s="4" t="s">
+    <row r="64" spans="1:2" ht="16" thickBot="1">
+      <c r="A64" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B64" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16" thickBot="1">
-      <c r="A66" s="17" t="s">
+    <row r="67" spans="1:2" ht="16" thickBot="1">
+      <c r="A67" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="17"/>
-    </row>
-    <row r="67" spans="1:2" ht="16" thickBot="1">
-      <c r="A67" s="8" t="s">
+      <c r="B67" s="22"/>
+    </row>
+    <row r="68" spans="1:2" ht="16" thickBot="1">
+      <c r="A68" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16" thickTop="1">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-    </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" ht="16" thickTop="1">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
     </row>
@@ -1467,18 +1488,22 @@
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="1:2" ht="16" thickBot="1">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
+    <row r="80" spans="1:2">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+    </row>
+    <row r="81" spans="1:2" ht="16" thickBot="1">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
     <mergeCell ref="A15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/others/Experiment Result Collecting.xlsx
+++ b/others/Experiment Result Collecting.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zjtbsteduau-my.sharepoint.com/personal/bert_office2016_cc/Documents/语义分割/segmentation-paper-reading-notes/others/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhixuan/Documents/OneDrive - www.office2016.cc/语义分割/segmentation-paper-reading-notes/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{62E551EC-10E5-524D-B422-5250019DCCBD}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{136CDF04-D73A-5046-AFE2-C3ACE9C9B9E2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
+    <workbookView xWindow="28800" yWindow="-900" windowWidth="38400" windowHeight="21140" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>mIoU%</t>
   </si>
@@ -254,39 +253,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RefineNet (Lin et al. 2017) *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GCN (Peng et al. 2017) *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DUC (Wang et al. 2018) *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BiSeNet (Yu et al. 2018) *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSANet (Zhao et al. 2018) *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DenseASPP (Yang et al. 2018) *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCNet (Huang et al. 2018) *</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* train with both the train-fine and val-fine datasets. (Gray means I don't know yet)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DFN (Yu et al. 2018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RefineNet (Lin et al. 2017) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GCN (Peng et al. 2017) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DUC (Wang et al. 2018) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BiSeNet (Yu et al. 2018) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PSANet (Zhao et al. 2018) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DenseASPP (Yang et al. 2018) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CCNet (Huang et al. 2018) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,18 +324,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -386,7 +375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,64 +391,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A11F8-E99A-4346-8F43-B4230CF89546}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="168" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -793,10 +761,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
@@ -941,272 +909,270 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="16" thickBot="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="16" thickTop="1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="1">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E21" s="10">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="16">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E22" s="10">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="16">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="1">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="C24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="16">
+        <v>79.3</v>
+      </c>
+      <c r="E24" s="10">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="1">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="16">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="16">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="1">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="1">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="E21" s="1">
-        <v>80.599999999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="5">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="E22" s="1">
-        <v>81.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="5">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="21" t="s">
+      <c r="C27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="17">
-        <v>79.3</v>
-      </c>
-      <c r="E24" s="21">
-        <v>80.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="5">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="5">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="10">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="16">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="1">
-        <v>81.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="D29" s="16">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="5">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="15">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="16">
+        <v>81.5</v>
+      </c>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="5">
-        <v>81.5</v>
-      </c>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="5">
+      <c r="C31" s="10"/>
+      <c r="D31" s="16">
         <v>81.7</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" ht="16" thickBot="1">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="6">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17">
         <v>82.1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="32" customHeight="1">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
@@ -1219,10 +1185,10 @@
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="16" thickBot="1">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="22"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="16" thickBot="1">
@@ -1294,19 +1260,19 @@
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="E47" s="7"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" ht="16" thickBot="1">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="22"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="16" thickBot="1">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1359,10 +1325,10 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="9">
         <v>86.2</v>
       </c>
     </row>
@@ -1415,10 +1381,10 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="9">
         <v>87.9</v>
       </c>
     </row>
@@ -1431,70 +1397,70 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" thickBot="1">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="22"/>
+      <c r="B67" s="11"/>
     </row>
     <row r="68" spans="1:2" ht="16" thickBot="1">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" thickTop="1">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
     </row>
     <row r="81" spans="1:2" ht="16" thickBot="1">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/others/Experiment Result Collecting.xlsx
+++ b/others/Experiment Result Collecting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhixuan/Documents/OneDrive - www.office2016.cc/语义分割/segmentation-paper-reading-notes/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{136CDF04-D73A-5046-AFE2-C3ACE9C9B9E2}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E2A1B635-921A-BB45-BFEF-49A7CBA5C3F5}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-900" windowWidth="38400" windowHeight="21140" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
   </bookViews>
@@ -409,6 +409,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,18 +428,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A11F8-E99A-4346-8F43-B4230CF89546}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="168" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="168" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -761,10 +761,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
@@ -909,30 +909,30 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="16" thickBot="1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="1"/>
@@ -955,7 +955,7 @@
       <c r="A18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="10"/>
@@ -968,7 +968,7 @@
       <c r="A19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="10"/>
@@ -981,7 +981,7 @@
       <c r="A20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="10"/>
@@ -1006,44 +1006,44 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="16">
+      <c r="D22" s="13">
         <v>78.400000000000006</v>
       </c>
       <c r="E22" s="10">
-        <v>81.2</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="16">
+      <c r="D23" s="13">
         <v>78.900000000000006</v>
       </c>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="13">
         <v>79.3</v>
       </c>
       <c r="E24" s="10">
@@ -1051,128 +1051,128 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="16">
+      <c r="D25" s="13">
         <v>80.099999999999994</v>
       </c>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="16">
+      <c r="D26" s="13">
         <v>80.599999999999994</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="10">
         <v>81.3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="16">
+      <c r="D28" s="13">
         <v>80.900000000000006</v>
       </c>
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="13">
         <v>81.400000000000006</v>
       </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="16">
+      <c r="D30" s="13">
         <v>81.5</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="16">
+      <c r="D31" s="13">
         <v>81.7</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" ht="16" thickBot="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14">
         <v>82.1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="32" customHeight="1">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
@@ -1185,10 +1185,10 @@
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="16" thickBot="1">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="16" thickBot="1">
@@ -1263,10 +1263,10 @@
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" ht="16" thickBot="1">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="11"/>
+      <c r="B48" s="15"/>
     </row>
     <row r="49" spans="1:2" ht="16" thickBot="1">
       <c r="A49" s="6" t="s">
@@ -1397,10 +1397,10 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" thickBot="1">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="11"/>
+      <c r="B67" s="15"/>
     </row>
     <row r="68" spans="1:2" ht="16" thickBot="1">
       <c r="A68" s="6" t="s">

--- a/others/Experiment Result Collecting.xlsx
+++ b/others/Experiment Result Collecting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhixuan/Documents/OneDrive - www.office2016.cc/语义分割/segmentation-paper-reading-notes/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E2A1B635-921A-BB45-BFEF-49A7CBA5C3F5}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D8350EB2-7ECA-B947-9CE7-E04E20452312}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-900" windowWidth="38400" windowHeight="21140" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
   </bookViews>
@@ -332,7 +332,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -369,6 +369,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -427,7 +436,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A11F8-E99A-4346-8F43-B4230CF89546}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="168" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1474,5 +1483,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/others/Experiment Result Collecting.xlsx
+++ b/others/Experiment Result Collecting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhixuan/Documents/OneDrive - www.office2016.cc/语义分割/segmentation-paper-reading-notes/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D8350EB2-7ECA-B947-9CE7-E04E20452312}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="102_{79BBAE74-8D80-6948-98E9-539AF6DD0874}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{ED6B4D3F-2042-BA47-9714-299DD1B10E14}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-900" windowWidth="38400" windowHeight="21140" xr2:uid="{63B4AE39-E76B-CB44-97BF-80BBBCE4952D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>mIoU%</t>
   </si>
@@ -282,6 +282,10 @@
   </si>
   <si>
     <t xml:space="preserve">CCNet (Huang et al. 2018) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAF (Ke et al. 2018)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +441,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A11F8-E99A-4346-8F43-B4230CF89546}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1286,144 +1293,148 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" thickTop="1">
-      <c r="A50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="1">
-        <v>82.7</v>
+      <c r="A50" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="18">
+        <v>82.17</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B51" s="1">
-        <v>83.1</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" s="1">
-        <v>83.6</v>
+        <v>83.1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="1">
-        <v>84.2</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B54" s="1">
-        <v>84.9</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="1">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B56" s="1">
         <v>85.4</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="9" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B57" s="9">
         <v>86.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="1">
-        <v>86.3</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58" s="1">
-        <v>86.6</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" s="1">
-        <v>86.8</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B60" s="1">
-        <v>85.7</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1">
-        <v>86.9</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="1">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B63" s="1">
         <v>87.8</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="9" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B64" s="9">
         <v>87.9</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16" thickBot="1">
-      <c r="A64" s="4" t="s">
+    <row r="65" spans="1:2" ht="16" thickBot="1">
+      <c r="A65" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B65" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16" thickBot="1">
-      <c r="A67" s="15" t="s">
+    <row r="68" spans="1:2" ht="16" thickBot="1">
+      <c r="A68" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="15"/>
-    </row>
-    <row r="68" spans="1:2" ht="16" thickBot="1">
-      <c r="A68" s="6" t="s">
+      <c r="B68" s="15"/>
+    </row>
+    <row r="69" spans="1:2" ht="16" thickBot="1">
+      <c r="A69" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B69" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16" thickTop="1">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-    </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" ht="16" thickTop="1">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
     </row>
@@ -1467,13 +1478,17 @@
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
     </row>
-    <row r="81" spans="1:2" ht="16" thickBot="1">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
+    <row r="81" spans="1:2">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="1:2" ht="16" thickBot="1">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A48:B48"/>
